--- a/Pubmed/Nipah/Nipah_P_G_Combined_12_11.xlsx
+++ b/Pubmed/Nipah/Nipah_P_G_Combined_12_11.xlsx
@@ -1186,7 +1186,7 @@
       </c>
       <c r="V5" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W5" s="3" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="V7" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W7" s="3" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W8" s="3" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="V10" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W10" s="3" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="V12" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W12" s="3" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t>N, P, F, G</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W15" s="3" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="V16" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W16" s="3" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="V17" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W17" s="3" t="inlineStr">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="V18" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W18" s="3" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="V19" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W19" s="3" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="V20" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W20" s="3" t="inlineStr">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="V21" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W21" s="3" t="inlineStr">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="V22" s="3" t="inlineStr">
         <is>
-          <t>N, G</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W22" s="3" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="V23" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W23" s="3" t="inlineStr">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="V24" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W24" s="3" t="inlineStr">
@@ -4062,17 +4062,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>As AK; Sahay RR; Radhakrishnan C; P S; Kandath S; Patil DY; Shete AM; M S; Ramakrishnan G; Moorkoth AP; Gupta N; Yadav PD; Godbole S; Ramakrishnan LV; Vadekkandiyil S; Ekkalayil D; V N; Balakrishnan A; Pullor NK; Asokan N; Joseph RK; Nair PR; Purayil SM; Mathew T; Kizhakkekandiyil R; Poovullathil JK; Ps KS; Pt U; George K; Rahim A; Kumar S; S S; Mohandas S; Rajan LS; Ramachandran SP; Thampi SP; Ashadevi; Anish TS; Chandran P; Mohan A; Vadakkayil B; Koroth SC; Hafeez N; Sasi RR; Abraham M</t>
+          <t>Balasubramanian R; Mohandas S; Thankappan UP; Shete A; Patil D; Sabarinath K; Mathapati B; Sahay R; Yadav PD</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Clinico-epidemiological presentations and management of Nipah virus infection during the outbreak in Kozhikode district, Kerala state, India 2023.</t>
+          <t>Surveillance of Nipah virus in Pteropus medius of Kerala state, India, 2023.</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>J Med Virol</t>
+          <t>Front Microbiol</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>38529536</t>
+          <t>38511004</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="L25" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M25" s="3" t="n">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="N25" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O25" s="3" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="P25" s="3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>spleen</t>
         </is>
       </c>
       <c r="Q25" s="3" t="inlineStr">
@@ -4183,16 +4183,19 @@
       </c>
       <c r="X25" s="3" t="inlineStr">
         <is>
-          <t>NGS</t>
+          <t>Sanger</t>
         </is>
       </c>
       <c r="Y25" s="3" t="inlineStr"/>
-      <c r="Z25" s="3" t="inlineStr"/>
+      <c r="Z25" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="AA25" s="3" t="inlineStr"/>
       <c r="AB25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OR820506, OR820507, and OR820508.
-</t>
+          <t>OR765960, OR765961, OR765962, OR765963, OR765964, and OR765965.</t>
         </is>
       </c>
       <c r="AC25" s="3" t="inlineStr">
@@ -4218,17 +4221,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Balasubramanian R; Mohandas S; Thankappan UP; Shete A; Patil D; Sabarinath K; Mathapati B; Sahay R; Yadav PD</t>
+          <t>As AK; Sahay RR; Radhakrishnan C; P S; Kandath S; Patil DY; Shete AM; M S; Ramakrishnan G; Moorkoth AP; Gupta N; Yadav PD; Godbole S; Ramakrishnan LV; Vadekkandiyil S; Ekkalayil D; V N; Balakrishnan A; Pullor NK; Asokan N; Joseph RK; Nair PR; Purayil SM; Mathew T; Kizhakkekandiyil R; Poovullathil JK; Ps KS; Pt U; George K; Rahim A; Kumar S; S S; Mohandas S; Rajan LS; Ramachandran SP; Thampi SP; Ashadevi; Anish TS; Chandran P; Mohan A; Vadakkayil B; Koroth SC; Hafeez N; Sasi RR; Abraham M</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Surveillance of Nipah virus in Pteropus medius of Kerala state, India, 2023.</t>
+          <t>Clinico-epidemiological presentations and management of Nipah virus infection during the outbreak in Kozhikode district, Kerala state, India 2023.</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>Front Microbiol</t>
+          <t>J Med Virol</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -4238,7 +4241,7 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>38511004</t>
+          <t>38529536</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
@@ -4273,7 +4276,7 @@
       </c>
       <c r="L26" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M26" s="3" t="n">
@@ -4281,7 +4284,7 @@
       </c>
       <c r="N26" s="3" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O26" s="3" t="inlineStr">
@@ -4292,7 +4295,7 @@
       </c>
       <c r="P26" s="3" t="inlineStr">
         <is>
-          <t>spleen</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Q26" s="3" t="inlineStr">
@@ -4339,19 +4342,16 @@
       </c>
       <c r="X26" s="3" t="inlineStr">
         <is>
-          <t>Sanger</t>
+          <t>NGS</t>
         </is>
       </c>
       <c r="Y26" s="3" t="inlineStr"/>
-      <c r="Z26" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="Z26" s="3" t="inlineStr"/>
       <c r="AA26" s="3" t="inlineStr"/>
       <c r="AB26" s="3" t="inlineStr">
         <is>
-          <t>OR765960, OR765961, OR765962, OR765963, OR765964, and OR765965.</t>
+          <t xml:space="preserve">OR820506, OR820507, and OR820508.
+</t>
         </is>
       </c>
       <c r="AC26" s="3" t="inlineStr">
@@ -4477,7 +4477,11 @@
 Bangladesh (1)</t>
         </is>
       </c>
-      <c r="V27" s="3" t="inlineStr"/>
+      <c r="V27" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W27" s="3" t="inlineStr">
         <is>
           <t>genome (3)</t>
@@ -4778,7 +4782,7 @@
       </c>
       <c r="V29" s="3" t="inlineStr">
         <is>
-          <t>N, M</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W29" s="3" t="inlineStr">
@@ -4935,7 +4939,7 @@
       </c>
       <c r="V30" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W30" s="3" t="inlineStr">
@@ -5093,7 +5097,7 @@
       </c>
       <c r="V31" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W31" s="3" t="inlineStr">
@@ -5227,7 +5231,7 @@
       <c r="U32" s="3" t="inlineStr"/>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr"/>
@@ -5429,7 +5433,7 @@
       <c r="U34" s="3" t="inlineStr"/>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>N, M</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr"/>

--- a/Pubmed/Nipah/Nipah_P_G_Combined_12_11.xlsx
+++ b/Pubmed/Nipah/Nipah_P_G_Combined_12_11.xlsx
@@ -765,16 +765,8 @@
           <t>NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302</t>
         </is>
       </c>
-      <c r="AD2" s="3" t="inlineStr">
-        <is>
-          <t>18246 (12)</t>
-        </is>
-      </c>
-      <c r="AE2" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (12)</t>
-        </is>
-      </c>
+      <c r="AD2" s="3" t="inlineStr"/>
+      <c r="AE2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -868,7 +860,7 @@
       </c>
       <c r="S3" s="3" t="inlineStr">
         <is>
-          <t>2014 (35)</t>
+          <t>2014.0 (35)</t>
         </is>
       </c>
       <c r="T3" s="3" t="inlineStr">
@@ -888,7 +880,7 @@
       </c>
       <c r="W3" s="3" t="inlineStr">
         <is>
-          <t>N (35)</t>
+          <t>NA (35)</t>
         </is>
       </c>
       <c r="X3" s="3" t="inlineStr">
@@ -909,20 +901,8 @@
           <t>MF133377, MF133376, MF133375, MF133374, MF133373, KY887671, KY887670, MF133377, MF133376, MF133375, MF133374, MF133373, KY887671, KY887670, MF133377, MF133376, MF133375, MF133374, MF133373, KY887671, KY887670, MF133377, MF133376, MF133375, MF133374, MF133373, KY887671, KY887670, KY887671, KY887670, MF133377, MF133376, MF133375, MF133374, MF133373</t>
         </is>
       </c>
-      <c r="AD3" s="3" t="inlineStr">
-        <is>
-          <t>318 (15)
-364 (10)
-297 (5)
-354 (5)</t>
-        </is>
-      </c>
-      <c r="AE3" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (20)
-90%-95% (15)</t>
-        </is>
-      </c>
+      <c r="AD3" s="3" t="inlineStr"/>
+      <c r="AE3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -1016,7 +996,7 @@
       <c r="S4" s="3" t="inlineStr">
         <is>
           <t>NA (153)
-2007 (21)</t>
+2007.0 (21)</t>
         </is>
       </c>
       <c r="T4" s="3" t="inlineStr">
@@ -1036,7 +1016,7 @@
       </c>
       <c r="W4" s="3" t="inlineStr">
         <is>
-          <t>N (174)</t>
+          <t>NA (174)</t>
         </is>
       </c>
       <c r="X4" s="3" t="inlineStr">
@@ -1065,18 +1045,8 @@
           <t>EU624737, EU624736, EU624735, EU603724, EU603725, EU603726, EU603727, EU603728, EU603729, EU603730, EU603731, EU603732, EU603733, EU603734, EU603735, EU603736, EU603737, EU603738, EU603739, EU603740, EU603741, EU603742, EU603743, EU603744, EU603745, EU603746, EU603747, EU603748, EU603749, EU603750, EU603751, EU603752, EU603753, EU603754, EU603755, EU603756, EU603757, EU603758, EU620498, EU624735, EU624736, EU624737, EU624737, EU624736, EU624735, EU624737, EU624736, EU624735, EU603724, EU603725, EU603726, EU603727, EU603728, EU603729, EU603730, EU603731, EU603732, EU603733, EU603734, EU603735, EU603736, EU603737, EU603738, EU603739, EU603740, EU603741, EU603742, EU603743, EU603744, EU603745, EU603746, EU603747, EU603748, EU603749, EU603750, EU603751, EU603752, EU603753, EU603754, EU603755, EU603756, EU603757, EU603758, EU620498, EU624735, EU624736, EU624737, EU603724, EU603725, EU603726, EU603727, EU603728, EU603729, EU603730, EU603731, EU603732, EU603733, EU603734, EU603735, EU603736, EU603737, EU603738, EU603739, EU603740, EU603741, EU603742, EU603743, EU603744, EU603745, EU603746, EU603747, EU603748, EU603749, EU603750, EU603751, EU603752, EU603753, EU603754, EU603755, EU603756, EU603757, EU603758, EU620498, EU624735, EU624736, EU624737, EU603724, EU603725, EU603726, EU603727, EU603728, EU603729, EU603730, EU603731, EU603732, EU603733, EU603734, EU603735, EU603736, EU603737, EU603738, EU603739, EU603740, EU603741, EU603742, EU603743, EU603744, EU603745, EU603746, EU603747, EU603748, EU603749, EU603750, EU603751, EU603752, EU603753, EU603754, EU603755, EU603756, EU603757, EU603758, EU620498, EU624735, EU624736, EU624737, EF070182, EF070183, EF070184, EF070185, EF070186, EF070187, EF070188, EF070189, EF070190</t>
         </is>
       </c>
-      <c r="AD4" s="3" t="inlineStr">
-        <is>
-          <t>357 (153)
-181 (21)</t>
-        </is>
-      </c>
-      <c r="AE4" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (124)
-95%-100% (50)</t>
-        </is>
-      </c>
+      <c r="AD4" s="3" t="inlineStr"/>
+      <c r="AE4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -1212,16 +1182,8 @@
           <t>AJ564621, AJ564622, AJ564623, AJ564621, AJ564622, AJ564623, AJ564621, AJ564622, AJ564623, AJ627196</t>
         </is>
       </c>
-      <c r="AD5" s="3" t="inlineStr">
-        <is>
-          <t>18246 (10)</t>
-        </is>
-      </c>
-      <c r="AE5" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (10)</t>
-        </is>
-      </c>
+      <c r="AD5" s="3" t="inlineStr"/>
+      <c r="AE5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -1314,9 +1276,9 @@
       </c>
       <c r="S6" s="3" t="inlineStr">
         <is>
-          <t>2015 (22)
-2014 (3)
-2013 (1)</t>
+          <t>2015.0 (22)
+2014.0 (3)
+2013.0 (1)</t>
         </is>
       </c>
       <c r="T6" s="3" t="inlineStr">
@@ -1336,8 +1298,7 @@
       </c>
       <c r="W6" s="3" t="inlineStr">
         <is>
-          <t>N (23)
-genome (3)</t>
+          <t>NA (26)</t>
         </is>
       </c>
       <c r="X6" s="3" t="inlineStr">
@@ -1358,19 +1319,8 @@
           <t>OR762512, OR762513, OR762514, OR762515, OR762516, OR762517, OR762518, OR762519, OR762520, OR762521, OR762522, OR762523, OR762524, OR762525, OR762526, OR762527, OR762528, OR762529, OR762530, OR762531, OR762532, OR762533, OR762534, OR762535, OR762536, OR762537</t>
         </is>
       </c>
-      <c r="AD6" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (20)
-100-500 (5)
-500-1000 (1)</t>
-        </is>
-      </c>
-      <c r="AE6" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (21)
-95%-100% (5)</t>
-        </is>
-      </c>
+      <c r="AD6" s="3" t="inlineStr"/>
+      <c r="AE6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -1508,16 +1458,8 @@
           <t>AY029767, AY029768, AY029767, AY029768, AY029767, AY029768</t>
         </is>
       </c>
-      <c r="AD7" s="3" t="inlineStr">
-        <is>
-          <t>18246 (6)</t>
-        </is>
-      </c>
-      <c r="AE7" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (6)</t>
-        </is>
-      </c>
+      <c r="AD7" s="3" t="inlineStr"/>
+      <c r="AE7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -1610,7 +1552,7 @@
       </c>
       <c r="S8" s="3" t="inlineStr">
         <is>
-          <t>2008 (2)</t>
+          <t>2008.0 (2)</t>
         </is>
       </c>
       <c r="T8" s="3" t="inlineStr">
@@ -1630,7 +1572,7 @@
       </c>
       <c r="W8" s="3" t="inlineStr">
         <is>
-          <t>L (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="X8" s="3" t="inlineStr">
@@ -1655,16 +1597,8 @@
           <t>FN869553, FN869553</t>
         </is>
       </c>
-      <c r="AD8" s="3" t="inlineStr">
-        <is>
-          <t>6741 (2)</t>
-        </is>
-      </c>
-      <c r="AE8" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD8" s="3" t="inlineStr"/>
+      <c r="AE8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -1777,7 +1711,7 @@
       </c>
       <c r="W9" s="3" t="inlineStr">
         <is>
-          <t>genome (3)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="X9" s="3" t="inlineStr">
@@ -1798,16 +1732,8 @@
           <t>AF376747, AF376747, AF376747</t>
         </is>
       </c>
-      <c r="AD9" s="3" t="inlineStr">
-        <is>
-          <t>11200 (3)</t>
-        </is>
-      </c>
-      <c r="AE9" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD9" s="3" t="inlineStr"/>
+      <c r="AE9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -1920,8 +1846,8 @@
       </c>
       <c r="W10" s="3" t="inlineStr">
         <is>
-          <t>genome (11)
-F (3)</t>
+          <t>genome (8)
+NA (6)</t>
         </is>
       </c>
       <c r="X10" s="3" t="inlineStr">
@@ -1948,18 +1874,8 @@
           <t>AF238466, AF238467, AF238466, AF238467, NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302, AF238466, AF238467</t>
         </is>
       </c>
-      <c r="AD10" s="3" t="inlineStr">
-        <is>
-          <t>18246 (8)
-2546 (3)
-2337 (3)</t>
-        </is>
-      </c>
-      <c r="AE10" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (14)</t>
-        </is>
-      </c>
+      <c r="AD10" s="3" t="inlineStr"/>
+      <c r="AE10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -2054,12 +1970,12 @@
       </c>
       <c r="S11" s="3" t="inlineStr">
         <is>
-          <t>2012 (27)
-2013 (21)
-2015 (15)
-2014 (15)
-2018 (6)
-2017 (6)</t>
+          <t>2012.0 (27)
+2013.0 (21)
+2015.0 (15)
+2014.0 (15)
+2018.0 (6)
+2017.0 (6)</t>
         </is>
       </c>
       <c r="T11" s="3" t="inlineStr">
@@ -2079,7 +1995,7 @@
       </c>
       <c r="W11" s="3" t="inlineStr">
         <is>
-          <t>N (90)</t>
+          <t>NA (90)</t>
         </is>
       </c>
       <c r="X11" s="3" t="inlineStr">
@@ -2104,17 +2020,8 @@
           <t>MT890702, MT890703, MT890704, MT890705, MT890706, MT890707, MT890708, MT890709, MT890710, MT890711, MT890712, MT890713, MT890714, MT890715, MT890716, MT890717, MT890718, MT890719, MT890720, MT890721, MT890722, MT890723, MT890724, MT890725, MT890726, MT890727, MT890728, MT890729, MT890730, MT890731, MT890702, MT890703, MT890704, MT890705, MT890706, MT890707, MT890708, MT890709, MT890710, MT890711, MT890712, MT890713, MT890714, MT890715, MT890716, MT890717, MT890718, MT890719, MT890720, MT890721, MT890722, MT890723, MT890724, MT890725, MT890726, MT890727, MT890728, MT890729, MT890730, MT890731, MT890702, MT890703, MT890704, MT890705, MT890706, MT890707, MT890708, MT890709, MT890710, MT890711, MT890712, MT890713, MT890714, MT890715, MT890716, MT890717, MT890718, MT890719, MT890720, MT890721, MT890722, MT890723, MT890724, MT890725, MT890726, MT890727, MT890728, MT890729, MT890730, MT890731</t>
         </is>
       </c>
-      <c r="AD11" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (90)</t>
-        </is>
-      </c>
-      <c r="AE11" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (81)
-95%-100% (9)</t>
-        </is>
-      </c>
+      <c r="AD11" s="3" t="inlineStr"/>
+      <c r="AE11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -2207,13 +2114,13 @@
       </c>
       <c r="S12" s="3" t="inlineStr">
         <is>
-          <t>2017 (16)
-2018 (15)
-2020 (9)
-2012 (9)
-2019 (6)
-2016 (6)
-2009 (6)</t>
+          <t>2017.0 (16)
+2018.0 (15)
+2020.0 (9)
+2012.0 (9)
+2019.0 (6)
+2016.0 (6)
+2009.0 (6)</t>
         </is>
       </c>
       <c r="T12" s="3" t="inlineStr">
@@ -2233,7 +2140,7 @@
       </c>
       <c r="W12" s="3" t="inlineStr">
         <is>
-          <t>N (63)
+          <t>NA (63)
 genome (4)</t>
         </is>
       </c>
@@ -2259,17 +2166,8 @@
           <t>MW535746, MW573860, MW573861, MW573862, MW573863, MW573864, MW573865, MW573866, MW573867, MW573868, MW573869, MW573870, MW573871, MW573872, MW573873, MW573874, MW573875, MW573876, MW573877, MW573878, MW573879, MW573880, MW535746, MW573860, MW573861, MW573862, MW573863, MW573864, MW573865, MW573866, MW573867, MW573868, MW573869, MW573870, MW573871, MW573872, MW573873, MW573874, MW573875, MW573876, MW573877, MW573878, MW573879, MW573880, MW535746, MW535746, MW573860, MW573861, MW573862, MW573863, MW573864, MW573865, MW573866, MW573867, MW573868, MW573869, MW573870, MW573871, MW573872, MW573873, MW573874, MW573875, MW573876, MW573877, MW573878, MW573879, MW573880</t>
         </is>
       </c>
-      <c r="AD12" s="3" t="inlineStr">
-        <is>
-          <t>357 (63)
-18250 (4)</t>
-        </is>
-      </c>
-      <c r="AE12" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (67)</t>
-        </is>
-      </c>
+      <c r="AD12" s="3" t="inlineStr"/>
+      <c r="AE12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -2382,7 +2280,7 @@
       </c>
       <c r="W13" s="3" t="inlineStr">
         <is>
-          <t>N (27)</t>
+          <t>NA (27)</t>
         </is>
       </c>
       <c r="X13" s="3" t="inlineStr">
@@ -2408,17 +2306,8 @@
           <t>EF070182, EF070183, EF070184, EF070185, EF070186, EF070187, EF070188, EF070189, EF070190, EF070182, EF070183, EF070184, EF070185, EF070186, EF070187, EF070188, EF070189, EF070190, EF070182, EF070183, EF070184, EF070185, EF070186, EF070187, EF070188, EF070189, EF070190</t>
         </is>
       </c>
-      <c r="AD13" s="3" t="inlineStr">
-        <is>
-          <t>357 (27)</t>
-        </is>
-      </c>
-      <c r="AE13" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (24)
-95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD13" s="3" t="inlineStr"/>
+      <c r="AE13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -2511,8 +2400,8 @@
       </c>
       <c r="S14" s="3" t="inlineStr">
         <is>
-          <t>2010 (18)
-2011 (15)</t>
+          <t>2010.0 (18)
+2011.0 (15)</t>
         </is>
       </c>
       <c r="T14" s="3" t="inlineStr">
@@ -2532,7 +2421,7 @@
       </c>
       <c r="W14" s="3" t="inlineStr">
         <is>
-          <t>N (33)</t>
+          <t>NA (33)</t>
         </is>
       </c>
       <c r="X14" s="3" t="inlineStr">
@@ -2554,18 +2443,8 @@
           <t>KT163247, KT163248, KT163249, KT163250, KT163251, KT163252, KT163253, KT163254, KT163255, KT163256, KT163257, KT163247, KT163248, KT163249, KT163250, KT163251, KT163252, KT163253, KT163254, KT163255, KT163256, KT163257, KT163247, KT163248, KT163249, KT163250, KT163251, KT163252, KT163253, KT163254, KT163255, KT163256, KT163257</t>
         </is>
       </c>
-      <c r="AD14" s="3" t="inlineStr">
-        <is>
-          <t>1599 (30)
-357 (3)</t>
-        </is>
-      </c>
-      <c r="AE14" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (18)
-95%-100% (15)</t>
-        </is>
-      </c>
+      <c r="AD14" s="3" t="inlineStr"/>
+      <c r="AE14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -2658,7 +2537,7 @@
       </c>
       <c r="S15" s="3" t="inlineStr">
         <is>
-          <t>2010 (12)</t>
+          <t>2010.0 (12)</t>
         </is>
       </c>
       <c r="T15" s="3" t="inlineStr">
@@ -2678,10 +2557,7 @@
       </c>
       <c r="W15" s="3" t="inlineStr">
         <is>
-          <t>F (3)
-genome (3)
-G (3)
-N (3)</t>
+          <t>NA (12)</t>
         </is>
       </c>
       <c r="X15" s="3" t="inlineStr">
@@ -2706,20 +2582,8 @@
           <t>JF899339, JF899340, JF899341, JF899342, JF899339, JF899340, JF899341, JF899342, JF899339, JF899340, JF899341, JF899342</t>
         </is>
       </c>
-      <c r="AD15" s="3" t="inlineStr">
-        <is>
-          <t>545 (3)
-336 (3)
-954 (3)
-204 (3)</t>
-        </is>
-      </c>
-      <c r="AE15" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (9)
-95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD15" s="3" t="inlineStr"/>
+      <c r="AE15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -2812,7 +2676,7 @@
       </c>
       <c r="S16" s="3" t="inlineStr">
         <is>
-          <t>2013 (11)</t>
+          <t>2013.0 (11)</t>
         </is>
       </c>
       <c r="T16" s="3" t="inlineStr">
@@ -2853,17 +2717,8 @@
           <t>MK575060, MK575061, MK575062, MK575063, MK575064, MK575065, MK575066, MK575067, MK575068, MK575069, MK575070</t>
         </is>
       </c>
-      <c r="AD16" s="3" t="inlineStr">
-        <is>
-          <t>18240 (10)
-9431 (1)</t>
-        </is>
-      </c>
-      <c r="AE16" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (11)</t>
-        </is>
-      </c>
+      <c r="AD16" s="3" t="inlineStr"/>
+      <c r="AE16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -2959,7 +2814,7 @@
       </c>
       <c r="S17" s="3" t="inlineStr">
         <is>
-          <t>2007 (8)</t>
+          <t>2007.0 (8)</t>
         </is>
       </c>
       <c r="T17" s="3" t="inlineStr">
@@ -2979,7 +2834,7 @@
       </c>
       <c r="W17" s="3" t="inlineStr">
         <is>
-          <t>N (6)
+          <t>NA (6)
 genome (2)</t>
         </is>
       </c>
@@ -3005,18 +2860,8 @@
           <t>FJ513078, FJ513079, FJ513080, FJ513081, FJ513078, FJ513079, FJ513080, FJ513081</t>
         </is>
       </c>
-      <c r="AD17" s="3" t="inlineStr">
-        <is>
-          <t>157 (6)
-18260 (2)</t>
-        </is>
-      </c>
-      <c r="AE17" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (6)
-90%-95% (2)</t>
-        </is>
-      </c>
+      <c r="AD17" s="3" t="inlineStr"/>
+      <c r="AE17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -3109,7 +2954,7 @@
       </c>
       <c r="S18" s="3" t="inlineStr">
         <is>
-          <t>2018 (12)</t>
+          <t>2018.0 (12)</t>
         </is>
       </c>
       <c r="T18" s="3" t="inlineStr"/>
@@ -3125,12 +2970,7 @@
       </c>
       <c r="W18" s="3" t="inlineStr">
         <is>
-          <t>L (2)
-G (2)
-F (2)
-M (2)
-genome (2)
-N (2)</t>
+          <t>NA (12)</t>
         </is>
       </c>
       <c r="X18" s="3" t="inlineStr">
@@ -3151,18 +2991,8 @@
           <t>MH891773, MH891774, MH891775, MH891776, MH891777, MH891778, MH891773, MH891774, MH891775, MH891776, MH891777, MH891778</t>
         </is>
       </c>
-      <c r="AD18" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (10)
-500-1000 (2)</t>
-        </is>
-      </c>
-      <c r="AE18" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (10)
-95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD18" s="3" t="inlineStr"/>
+      <c r="AE18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -3257,9 +3087,9 @@
       </c>
       <c r="S19" s="3" t="inlineStr">
         <is>
-          <t>2003 (2)
+          <t>2003.0 (2)
 NA (2)
-2004 (1)</t>
+2004.0 (1)</t>
         </is>
       </c>
       <c r="T19" s="3" t="inlineStr">
@@ -3304,18 +3134,8 @@
           <t>MK801755, AY029767, AY029768, MK801755, AY988601</t>
         </is>
       </c>
-      <c r="AD19" s="3" t="inlineStr">
-        <is>
-          <t>18246 (4)
-18259 (1)</t>
-        </is>
-      </c>
-      <c r="AE19" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (4)
-90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD19" s="3" t="inlineStr"/>
+      <c r="AE19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
@@ -3408,7 +3228,7 @@
       </c>
       <c r="S20" s="3" t="inlineStr">
         <is>
-          <t>2004 (2)</t>
+          <t>2004.0 (2)</t>
         </is>
       </c>
       <c r="T20" s="3" t="inlineStr">
@@ -3453,16 +3273,8 @@
           <t>AY988601, AY988601</t>
         </is>
       </c>
-      <c r="AD20" s="3" t="inlineStr">
-        <is>
-          <t>18259 (2)</t>
-        </is>
-      </c>
-      <c r="AE20" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (2)</t>
-        </is>
-      </c>
+      <c r="AD20" s="3" t="inlineStr"/>
+      <c r="AE20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
@@ -3555,9 +3367,9 @@
       </c>
       <c r="S21" s="3" t="inlineStr">
         <is>
-          <t>2010 (6)
-2004 (6)
-2008 (4)</t>
+          <t>2010.0 (6)
+2004.0 (6)
+2008.0 (4)</t>
         </is>
       </c>
       <c r="T21" s="3" t="inlineStr">
@@ -3577,7 +3389,7 @@
       </c>
       <c r="W21" s="3" t="inlineStr">
         <is>
-          <t>N (10)
+          <t>NA (10)
 genome (6)</t>
         </is>
       </c>
@@ -3604,18 +3416,8 @@
           <t>JN808857, JN808858, JN808859, JN808860, JN808861, JN808862, JN808863, JN808864, JN808857, JN808858, JN808859, JN808860, JN808861, JN808862, JN808863, JN808864</t>
         </is>
       </c>
-      <c r="AD21" s="3" t="inlineStr">
-        <is>
-          <t>1599 (10)
-18260 (4)
-18173 (2)</t>
-        </is>
-      </c>
-      <c r="AE21" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (16)</t>
-        </is>
-      </c>
+      <c r="AD21" s="3" t="inlineStr"/>
+      <c r="AE21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
@@ -3728,8 +3530,7 @@
       </c>
       <c r="W22" s="3" t="inlineStr">
         <is>
-          <t>G (2)
-N (2)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="X22" s="3" t="inlineStr">
@@ -3751,17 +3552,8 @@
           <t>AY858110, AY858111, AY858110, AY858111</t>
         </is>
       </c>
-      <c r="AD22" s="3" t="inlineStr">
-        <is>
-          <t>1809 (2)
-1599 (2)</t>
-        </is>
-      </c>
-      <c r="AE22" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (4)</t>
-        </is>
-      </c>
+      <c r="AD22" s="3" t="inlineStr"/>
+      <c r="AE22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -3854,7 +3646,7 @@
       </c>
       <c r="S23" s="3" t="inlineStr">
         <is>
-          <t>2021 (2)</t>
+          <t>2021.0 (2)</t>
         </is>
       </c>
       <c r="T23" s="3" t="inlineStr">
@@ -3899,16 +3691,8 @@
           <t>OM135495, OM135495</t>
         </is>
       </c>
-      <c r="AD23" s="3" t="inlineStr">
-        <is>
-          <t>6732 (2)</t>
-        </is>
-      </c>
-      <c r="AE23" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (2)</t>
-        </is>
-      </c>
+      <c r="AD23" s="3" t="inlineStr"/>
+      <c r="AE23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -3999,7 +3783,7 @@
       <c r="S24" s="3" t="inlineStr">
         <is>
           <t>NA (8)
-2004 (1)</t>
+2004.0 (1)</t>
         </is>
       </c>
       <c r="T24" s="3" t="inlineStr">
@@ -4046,18 +3830,8 @@
           <t>NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302, AY988601</t>
         </is>
       </c>
-      <c r="AD24" s="3" t="inlineStr">
-        <is>
-          <t>18246 (8)
-18259 (1)</t>
-        </is>
-      </c>
-      <c r="AE24" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (8)
-90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD24" s="3" t="inlineStr"/>
+      <c r="AE24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
@@ -4154,7 +3928,7 @@
       </c>
       <c r="S25" s="3" t="inlineStr">
         <is>
-          <t>2023 (19)</t>
+          <t>2023.0 (19)</t>
         </is>
       </c>
       <c r="T25" s="3" t="inlineStr">
@@ -4174,11 +3948,9 @@
       </c>
       <c r="W25" s="3" t="inlineStr">
         <is>
-          <t>N (8)
-L (5)
+          <t>NA (15)
 genome (3)
-F (2)
-P (1)</t>
+Partial L gene (1)</t>
         </is>
       </c>
       <c r="X25" s="3" t="inlineStr">
@@ -4203,20 +3975,8 @@
           <t>OR765965, OR765964, OR765963, OR765962, OR765961, OR765960, OR765959, OR838354, OR838353, OR838352, OR838351, OR838350, OR838349, OR838348, OR838347, OR828430, OR820508, OR820507, OR820506</t>
         </is>
       </c>
-      <c r="AD25" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (15)
-5000-10000 (2)
-500-1000 (1)
-&gt;10000 (1)</t>
-        </is>
-      </c>
-      <c r="AE25" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (18)
-95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD25" s="3" t="inlineStr"/>
+      <c r="AE25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -4313,7 +4073,7 @@
       </c>
       <c r="S26" s="3" t="inlineStr">
         <is>
-          <t>2023 (19)</t>
+          <t>2023.0 (19)</t>
         </is>
       </c>
       <c r="T26" s="3" t="inlineStr">
@@ -4333,11 +4093,9 @@
       </c>
       <c r="W26" s="3" t="inlineStr">
         <is>
-          <t>N (8)
-L (5)
+          <t>NA (15)
 genome (3)
-F (2)
-P (1)</t>
+Partial L gene (1)</t>
         </is>
       </c>
       <c r="X26" s="3" t="inlineStr">
@@ -4359,20 +4117,8 @@
           <t>OR765965, OR765964, OR765963, OR765962, OR765961, OR765960, OR765959, OR838354, OR838353, OR838352, OR838351, OR838350, OR838349, OR838348, OR838347, OR828430, OR820508, OR820507, OR820506</t>
         </is>
       </c>
-      <c r="AD26" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (15)
-5000-10000 (2)
-500-1000 (1)
-&gt;10000 (1)</t>
-        </is>
-      </c>
-      <c r="AE26" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (18)
-95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD26" s="3" t="inlineStr"/>
+      <c r="AE26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -4463,7 +4209,7 @@
       <c r="S27" s="3" t="inlineStr">
         <is>
           <t>NA (2)
-2004 (1)</t>
+2004.0 (1)</t>
         </is>
       </c>
       <c r="T27" s="3" t="inlineStr">
@@ -4510,18 +4256,8 @@
           <t>AY029767, AY029768, AY988601</t>
         </is>
       </c>
-      <c r="AD27" s="3" t="inlineStr">
-        <is>
-          <t>18246 (2)
-18259 (1)</t>
-        </is>
-      </c>
-      <c r="AE27" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)
-90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD27" s="3" t="inlineStr"/>
+      <c r="AE27" s="3" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
@@ -4634,7 +4370,7 @@
       </c>
       <c r="W28" s="3" t="inlineStr">
         <is>
-          <t>N (38)</t>
+          <t>NA (38)</t>
         </is>
       </c>
       <c r="X28" s="3" t="inlineStr">
@@ -4659,20 +4395,8 @@
           <t>MK995284, MK995285, MK995286, MK995287, MK995288, MK995289, MK995290, MK995291, MK995292, MK995293, MK995294, MK995295, MK995296, MK995297, MK995298, MK995299, MK995300, MK995301, MK995302, MK995284, MK995285, MK995286, MK995287, MK995288, MK995289, MK995290, MK995291, MK995292, MK995293, MK995294, MK995295, MK995296, MK995297, MK995298, MK995299, MK995300, MK995301, MK995302</t>
         </is>
       </c>
-      <c r="AD28" s="3" t="inlineStr">
-        <is>
-          <t>224 (26)
-222 (8)
-229 (4)</t>
-        </is>
-      </c>
-      <c r="AE28" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (26)
-95%-100% (8)
-75%-90% (4)</t>
-        </is>
-      </c>
+      <c r="AD28" s="3" t="inlineStr"/>
+      <c r="AE28" s="3" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
@@ -4767,7 +4491,7 @@
       </c>
       <c r="S29" s="3" t="inlineStr">
         <is>
-          <t>2009 (5)</t>
+          <t>2009.0 (5)</t>
         </is>
       </c>
       <c r="T29" s="3" t="inlineStr">
@@ -4787,7 +4511,7 @@
       </c>
       <c r="W29" s="3" t="inlineStr">
         <is>
-          <t>M (5)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="X29" s="3" t="inlineStr">
@@ -4808,16 +4532,8 @@
           <t>KC903168, KC903169, KC903170, KC903171, KC903172</t>
         </is>
       </c>
-      <c r="AD29" s="3" t="inlineStr">
-        <is>
-          <t>251 (5)</t>
-        </is>
-      </c>
-      <c r="AE29" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (5)</t>
-        </is>
-      </c>
+      <c r="AD29" s="3" t="inlineStr"/>
+      <c r="AE29" s="3" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -4916,14 +4632,14 @@
       </c>
       <c r="S30" s="3" t="inlineStr">
         <is>
-          <t>2011 (9)
-1999 (6)
-2015 (5)
-2014 (4)
-2012 (4)
-2004 (4)
-2013 (1)
-2008 (1)</t>
+          <t>2011.0 (9)
+1999.0 (6)
+2015.0 (5)
+2014.0 (4)
+2012.0 (4)
+2004.0 (4)
+2013.0 (1)
+2008.0 (1)</t>
         </is>
       </c>
       <c r="T30" s="3" t="inlineStr">
@@ -4969,18 +4685,8 @@
           <t>MK673558, MK673559, MK673560, MK673561, MK673562, MK673563, MK673564, MK673565, MK673566, MK673567, MK673568, MK673570, MK673571, MK673572, MK673573, MK673574, MK673575, MK673576, MK673577, MK673578, MK673579, MK673580, MK673581, MK673582, MK673583, MK673584, MK673585, MK673586, MK673587, MK673588, MK673589, MK673590, MK673591, MK673592</t>
         </is>
       </c>
-      <c r="AD30" s="3" t="inlineStr">
-        <is>
-          <t>&gt;10000 (32)
-5000-10000 (2)</t>
-        </is>
-      </c>
-      <c r="AE30" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (28)
-95%-100% (6)</t>
-        </is>
-      </c>
+      <c r="AD30" s="3" t="inlineStr"/>
+      <c r="AE30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
@@ -5081,8 +4787,8 @@
       </c>
       <c r="S31" s="3" t="inlineStr">
         <is>
-          <t>2018 (78)
-2019 (20)</t>
+          <t>2018.0 (78)
+2019.0 (20)</t>
         </is>
       </c>
       <c r="T31" s="3" t="inlineStr">
@@ -5102,11 +4808,8 @@
       </c>
       <c r="W31" s="3" t="inlineStr">
         <is>
-          <t>genome (52)
-N (22)
-L (12)
-P (8)
-F (4)</t>
+          <t>NA (54)
+genome (44)</t>
         </is>
       </c>
       <c r="X31" s="3" t="inlineStr">
@@ -5134,22 +4837,8 @@
           <t>MH396625, MH423324, MH523640, MH523641, MH523642, MH523643, MH523644, MH523645, MK336155, MK336156, MK577980, MK577981, MK577982, MK577983, MK577984, MK577985, MK577986, MK577987, MK577988, MK577989, MH396625, MH423324, MH523640, MH523641, MH523642, MH523643, MH523644, MH523645, MK336155, MK336156, MK577980, MK577981, MK577982, MK577983, MK577984, MK577985, MK577986, MK577987, MK577988, MK577989, MH396625, MH523640, MH523641, MH523642, MH523643, MH523644, MH523645, MK336155, MK336156, MK577980, MK577981, MK577982, MK577983, MK577984, MK577985, MK577986, MK577987, MK577988, MK577989, MN549402, MN549403, MN549404, MN549405, MN549406, MN549407, MN549408, MN549409, MN549410, MN549411, MH396625, MH523640, MH523641, MH523642, MH523643, MH523644, MH523645, MK336155, MK336156, MK577980, MK577981, MK577982, MK577983, MK577984, MK577985, MK577986, MK577987, MK577988, MK577989, MN549402, MN549403, MN549404, MN549405, MN549406, MN549407, MN549408, MN549409, MN549410, MN549411</t>
         </is>
       </c>
-      <c r="AD31" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (48)
-5000-10000 (28)
-&gt;10000 (16)
-500-1000 (4)
-1000-3000 (2)</t>
-        </is>
-      </c>
-      <c r="AE31" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (70)
-75%-90% (22)
-95%-100% (6)</t>
-        </is>
-      </c>
+      <c r="AD31" s="3" t="inlineStr"/>
+      <c r="AE31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
@@ -5525,7 +5214,7 @@
       <c r="V35" s="3" t="inlineStr"/>
       <c r="W35" s="3" t="inlineStr">
         <is>
-          <t>L (14)</t>
+          <t>NA (14)</t>
         </is>
       </c>
       <c r="X35" s="3" t="inlineStr"/>
@@ -5538,16 +5227,8 @@
           <t>GN354748, GN354747, GN354746, GN354745, GN354744, GN354743, GN354742, GN354741, GN354740, GN354739, GN354738, GN354737, GN354736, GN354735</t>
         </is>
       </c>
-      <c r="AD35" s="3" t="inlineStr">
-        <is>
-          <t>60 (14)</t>
-        </is>
-      </c>
-      <c r="AE35" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (14)</t>
-        </is>
-      </c>
+      <c r="AD35" s="3" t="inlineStr"/>
+      <c r="AE35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -5620,7 +5301,7 @@
       <c r="V36" s="3" t="inlineStr"/>
       <c r="W36" s="3" t="inlineStr">
         <is>
-          <t>F (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X36" s="3" t="inlineStr"/>
@@ -5633,16 +5314,8 @@
           <t>MS987832</t>
         </is>
       </c>
-      <c r="AD36" s="3" t="inlineStr">
-        <is>
-          <t>1464 (1)</t>
-        </is>
-      </c>
-      <c r="AE36" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD36" s="3" t="inlineStr"/>
+      <c r="AE36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -5715,7 +5388,7 @@
       <c r="V37" s="3" t="inlineStr"/>
       <c r="W37" s="3" t="inlineStr">
         <is>
-          <t>F (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X37" s="3" t="inlineStr"/>
@@ -5728,16 +5401,8 @@
           <t>HI577215</t>
         </is>
       </c>
-      <c r="AD37" s="3" t="inlineStr">
-        <is>
-          <t>1464 (1)</t>
-        </is>
-      </c>
-      <c r="AE37" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD37" s="3" t="inlineStr"/>
+      <c r="AE37" s="3" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
@@ -5810,7 +5475,7 @@
       <c r="V38" s="3" t="inlineStr"/>
       <c r="W38" s="3" t="inlineStr">
         <is>
-          <t>N (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="X38" s="3" t="inlineStr"/>
@@ -5823,16 +5488,8 @@
           <t>DM091219, DM091218</t>
         </is>
       </c>
-      <c r="AD38" s="3" t="inlineStr">
-        <is>
-          <t>230 (2)</t>
-        </is>
-      </c>
-      <c r="AE38" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD38" s="3" t="inlineStr"/>
+      <c r="AE38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -5905,7 +5562,7 @@
       <c r="V39" s="3" t="inlineStr"/>
       <c r="W39" s="3" t="inlineStr">
         <is>
-          <t>N (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="X39" s="3" t="inlineStr"/>
@@ -5918,16 +5575,8 @@
           <t>HB384542, HB384541</t>
         </is>
       </c>
-      <c r="AD39" s="3" t="inlineStr">
-        <is>
-          <t>230 (2)</t>
-        </is>
-      </c>
-      <c r="AE39" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD39" s="3" t="inlineStr"/>
+      <c r="AE39" s="3" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
@@ -6013,16 +5662,8 @@
           <t>CS059658, CS059649</t>
         </is>
       </c>
-      <c r="AD40" s="3" t="inlineStr">
-        <is>
-          <t>18246 (2)</t>
-        </is>
-      </c>
-      <c r="AE40" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD40" s="3" t="inlineStr"/>
+      <c r="AE40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -6095,7 +5736,7 @@
       <c r="V41" s="3" t="inlineStr"/>
       <c r="W41" s="3" t="inlineStr">
         <is>
-          <t>G (1), F (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="X41" s="3" t="inlineStr"/>
@@ -6108,16 +5749,8 @@
           <t>JC241930, JC241928</t>
         </is>
       </c>
-      <c r="AD41" s="3" t="inlineStr">
-        <is>
-          <t>1809 (1), 1641 (1)</t>
-        </is>
-      </c>
-      <c r="AE41" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD41" s="3" t="inlineStr"/>
+      <c r="AE41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -6207,16 +5840,8 @@
           <t>NC_002728</t>
         </is>
       </c>
-      <c r="AD42" s="3" t="inlineStr">
-        <is>
-          <t>18246 (1)</t>
-        </is>
-      </c>
-      <c r="AE42" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD42" s="3" t="inlineStr"/>
+      <c r="AE42" s="3" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -6302,16 +5927,8 @@
           <t>FV537360, FV537359, FV537358, FV537357</t>
         </is>
       </c>
-      <c r="AD43" s="3" t="inlineStr">
-        <is>
-          <t>18243 (2), 18231 (2)</t>
-        </is>
-      </c>
-      <c r="AE43" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (4)</t>
-        </is>
-      </c>
+      <c r="AD43" s="3" t="inlineStr"/>
+      <c r="AE43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
@@ -6384,7 +6001,7 @@
       <c r="V44" s="3" t="inlineStr"/>
       <c r="W44" s="3" t="inlineStr">
         <is>
-          <t>P (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X44" s="3" t="inlineStr"/>
@@ -6397,16 +6014,8 @@
           <t>BD285535</t>
         </is>
       </c>
-      <c r="AD44" s="3" t="inlineStr">
-        <is>
-          <t>501 (1)</t>
-        </is>
-      </c>
-      <c r="AE44" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD44" s="3" t="inlineStr"/>
+      <c r="AE44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
@@ -6492,16 +6101,8 @@
           <t>NC_002728</t>
         </is>
       </c>
-      <c r="AD45" s="3" t="inlineStr">
-        <is>
-          <t>18246 (1)</t>
-        </is>
-      </c>
-      <c r="AE45" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD45" s="3" t="inlineStr"/>
+      <c r="AE45" s="3" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
@@ -6562,7 +6163,7 @@
       <c r="R46" s="3" t="inlineStr"/>
       <c r="S46" s="3" t="inlineStr">
         <is>
-          <t>2017 (4), 2016 (2)</t>
+          <t>2017.0 (4), 2016.0 (2)</t>
         </is>
       </c>
       <c r="T46" s="3" t="inlineStr"/>
@@ -6574,7 +6175,7 @@
       <c r="V46" s="3" t="inlineStr"/>
       <c r="W46" s="3" t="inlineStr">
         <is>
-          <t>N (6)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="X46" s="3" t="inlineStr"/>
@@ -6587,16 +6188,8 @@
           <t>MT125117, MT125116, MT125115, MT125114, MT125113, MT125112</t>
         </is>
       </c>
-      <c r="AD46" s="3" t="inlineStr">
-        <is>
-          <t>168 (6)</t>
-        </is>
-      </c>
-      <c r="AE46" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (6)</t>
-        </is>
-      </c>
+      <c r="AD46" s="3" t="inlineStr"/>
+      <c r="AE46" s="3" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
@@ -6657,7 +6250,7 @@
       <c r="R47" s="3" t="inlineStr"/>
       <c r="S47" s="3" t="inlineStr">
         <is>
-          <t>1998 (1)</t>
+          <t>1998.0 (1)</t>
         </is>
       </c>
       <c r="T47" s="3" t="inlineStr"/>
@@ -6682,16 +6275,8 @@
           <t>PQ463988</t>
         </is>
       </c>
-      <c r="AD47" s="3" t="inlineStr">
-        <is>
-          <t>18131 (1)</t>
-        </is>
-      </c>
-      <c r="AE47" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD47" s="3" t="inlineStr"/>
+      <c r="AE47" s="3" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
@@ -6777,16 +6362,8 @@
           <t>DJ040595, DJ040594</t>
         </is>
       </c>
-      <c r="AD48" s="3" t="inlineStr">
-        <is>
-          <t>18246 (2)</t>
-        </is>
-      </c>
-      <c r="AE48" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD48" s="3" t="inlineStr"/>
+      <c r="AE48" s="3" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
@@ -6859,7 +6436,7 @@
       <c r="V49" s="3" t="inlineStr"/>
       <c r="W49" s="3" t="inlineStr">
         <is>
-          <t>P (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X49" s="3" t="inlineStr"/>
@@ -6872,16 +6449,8 @@
           <t>PF321325</t>
         </is>
       </c>
-      <c r="AD49" s="3" t="inlineStr">
-        <is>
-          <t>1368 (1)</t>
-        </is>
-      </c>
-      <c r="AE49" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD49" s="3" t="inlineStr"/>
+      <c r="AE49" s="3" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -6967,16 +6536,8 @@
           <t>LP133537, LP133536</t>
         </is>
       </c>
-      <c r="AD50" s="3" t="inlineStr">
-        <is>
-          <t>0 (2)</t>
-        </is>
-      </c>
-      <c r="AE50" s="3" t="inlineStr">
-        <is>
-          <t>0%-25% (2)</t>
-        </is>
-      </c>
+      <c r="AD50" s="3" t="inlineStr"/>
+      <c r="AE50" s="3" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
@@ -7037,7 +6598,7 @@
       <c r="R51" s="3" t="inlineStr"/>
       <c r="S51" s="3" t="inlineStr">
         <is>
-          <t>2019 (1)</t>
+          <t>2019.0 (1)</t>
         </is>
       </c>
       <c r="T51" s="3" t="inlineStr"/>
@@ -7062,16 +6623,8 @@
           <t>OR130496</t>
         </is>
       </c>
-      <c r="AD51" s="3" t="inlineStr">
-        <is>
-          <t>6732 (1)</t>
-        </is>
-      </c>
-      <c r="AE51" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD51" s="3" t="inlineStr"/>
+      <c r="AE51" s="3" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
@@ -7128,7 +6681,7 @@
       <c r="R52" s="3" t="inlineStr"/>
       <c r="S52" s="3" t="inlineStr">
         <is>
-          <t>2018 (2)</t>
+          <t>2018.0 (2)</t>
         </is>
       </c>
       <c r="T52" s="3" t="inlineStr"/>
@@ -7153,16 +6706,8 @@
           <t>MK336156, MK336155</t>
         </is>
       </c>
-      <c r="AD52" s="3" t="inlineStr">
-        <is>
-          <t>13842 (1), 8667 (1)</t>
-        </is>
-      </c>
-      <c r="AE52" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (2)</t>
-        </is>
-      </c>
+      <c r="AD52" s="3" t="inlineStr"/>
+      <c r="AE52" s="3" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -7248,16 +6793,8 @@
           <t>FB344269, HD053189</t>
         </is>
       </c>
-      <c r="AD53" s="3" t="inlineStr">
-        <is>
-          <t>18246 (2)</t>
-        </is>
-      </c>
-      <c r="AE53" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD53" s="3" t="inlineStr"/>
+      <c r="AE53" s="3" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -7343,16 +6880,8 @@
           <t>OK572974, OK573014</t>
         </is>
       </c>
-      <c r="AD54" s="3" t="inlineStr">
-        <is>
-          <t>18119 (1), 17961 (1)</t>
-        </is>
-      </c>
-      <c r="AE54" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD54" s="3" t="inlineStr"/>
+      <c r="AE54" s="3" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -7425,7 +6954,7 @@
       <c r="V55" s="3" t="inlineStr"/>
       <c r="W55" s="3" t="inlineStr">
         <is>
-          <t>G (5)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="X55" s="3" t="inlineStr"/>
@@ -7438,16 +6967,8 @@
           <t>HW614202, LV577552, LY330213, LZ231520, MA137125</t>
         </is>
       </c>
-      <c r="AD55" s="3" t="inlineStr">
-        <is>
-          <t>1809 (5)</t>
-        </is>
-      </c>
-      <c r="AE55" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (5)</t>
-        </is>
-      </c>
+      <c r="AD55" s="3" t="inlineStr"/>
+      <c r="AE55" s="3" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
@@ -7508,7 +7029,7 @@
       <c r="R56" s="3" t="inlineStr"/>
       <c r="S56" s="3" t="inlineStr">
         <is>
-          <t>2013 (3)</t>
+          <t>2013.0 (3)</t>
         </is>
       </c>
       <c r="T56" s="3" t="inlineStr"/>
@@ -7520,7 +7041,7 @@
       <c r="V56" s="3" t="inlineStr"/>
       <c r="W56" s="3" t="inlineStr">
         <is>
-          <t>N (3)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="X56" s="3" t="inlineStr"/>
@@ -7533,16 +7054,8 @@
           <t>KM034753, KM034754, KM034755</t>
         </is>
       </c>
-      <c r="AD56" s="3" t="inlineStr">
-        <is>
-          <t>227 (2), 1599 (1)</t>
-        </is>
-      </c>
-      <c r="AE56" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (2), 95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD56" s="3" t="inlineStr"/>
+      <c r="AE56" s="3" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
@@ -7615,7 +7128,7 @@
       <c r="V57" s="3" t="inlineStr"/>
       <c r="W57" s="3" t="inlineStr">
         <is>
-          <t>G (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="X57" s="3" t="inlineStr"/>
@@ -7628,16 +7141,8 @@
           <t>DI399829, LY995020</t>
         </is>
       </c>
-      <c r="AD57" s="3" t="inlineStr">
-        <is>
-          <t>1809 (2)</t>
-        </is>
-      </c>
-      <c r="AE57" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD57" s="3" t="inlineStr"/>
+      <c r="AE57" s="3" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
@@ -7694,7 +7199,7 @@
       <c r="R58" s="3" t="inlineStr"/>
       <c r="S58" s="3" t="inlineStr">
         <is>
-          <t>1999 (2)</t>
+          <t>1999.0 (2)</t>
         </is>
       </c>
       <c r="T58" s="3" t="inlineStr"/>
@@ -7719,16 +7224,8 @@
           <t>KY425646, KY425655</t>
         </is>
       </c>
-      <c r="AD58" s="3" t="inlineStr">
-        <is>
-          <t>18214 (1), 18212 (1)</t>
-        </is>
-      </c>
-      <c r="AE58" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD58" s="3" t="inlineStr"/>
+      <c r="AE58" s="3" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -7789,7 +7286,7 @@
       <c r="R59" s="3" t="inlineStr"/>
       <c r="S59" s="3" t="inlineStr">
         <is>
-          <t>2019 (2), 2018 (2)</t>
+          <t>2019.0 (2), 2018.0 (2)</t>
         </is>
       </c>
       <c r="T59" s="3" t="inlineStr"/>
@@ -7801,7 +7298,7 @@
       <c r="V59" s="3" t="inlineStr"/>
       <c r="W59" s="3" t="inlineStr">
         <is>
-          <t>genome (2), P (1), L (1)</t>
+          <t>NA (2), genome (2)</t>
         </is>
       </c>
       <c r="X59" s="3" t="inlineStr"/>
@@ -7814,16 +7311,8 @@
           <t>PP893186, PP893187, PP893188, PP893189</t>
         </is>
       </c>
-      <c r="AD59" s="3" t="inlineStr">
-        <is>
-          <t>255 (1), 17960 (1), 481 (1), 7763 (1)</t>
-        </is>
-      </c>
-      <c r="AE59" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (4)</t>
-        </is>
-      </c>
+      <c r="AD59" s="3" t="inlineStr"/>
+      <c r="AE59" s="3" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
@@ -7884,7 +7373,7 @@
       <c r="R60" s="3" t="inlineStr"/>
       <c r="S60" s="3" t="inlineStr">
         <is>
-          <t>2023 (11), 2020 (5), 2022 (3), 2017 (2), 2012 (1), 2019 (1), 2018 (1)</t>
+          <t>2023.0 (11), 2020.0 (5), 2022.0 (3), 2017.0 (2), 2012.0 (1), 2019.0 (1), 2018.0 (1)</t>
         </is>
       </c>
       <c r="T60" s="3" t="inlineStr"/>
@@ -7909,16 +7398,8 @@
           <t>PP981664, PP981665, PP981666, PP981667, PP981668, PP981669, PP981670, PP981671, PP981672, PP981673, PP981674, PP981675, PP981676, PP981677, PP981678, PP981679, PP981680, PP981681, PP981682, PP981683, PP981684, PQ368168, PQ368169, PQ368170</t>
         </is>
       </c>
-      <c r="AD60" s="3" t="inlineStr">
-        <is>
-          <t>3000-5000 (1), 5000-10000 (4), &gt;10000 (19)</t>
-        </is>
-      </c>
-      <c r="AE60" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (24)</t>
-        </is>
-      </c>
+      <c r="AD60" s="3" t="inlineStr"/>
+      <c r="AE60" s="3" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
@@ -7979,7 +7460,7 @@
       <c r="R61" s="3" t="inlineStr"/>
       <c r="S61" s="3" t="inlineStr">
         <is>
-          <t>2008 (3)</t>
+          <t>2008.0 (3)</t>
         </is>
       </c>
       <c r="T61" s="3" t="inlineStr"/>
@@ -7991,7 +7472,7 @@
       <c r="V61" s="3" t="inlineStr"/>
       <c r="W61" s="3" t="inlineStr">
         <is>
-          <t>L (1), P (1), G (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="X61" s="3" t="inlineStr"/>
@@ -8004,16 +7485,8 @@
           <t>HM545086, HM545087, HM545088</t>
         </is>
       </c>
-      <c r="AD61" s="3" t="inlineStr">
-        <is>
-          <t>6735 (1), 2130 (1), 1809 (1)</t>
-        </is>
-      </c>
-      <c r="AE61" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD61" s="3" t="inlineStr"/>
+      <c r="AE61" s="3" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
@@ -8086,7 +7559,7 @@
       <c r="V62" s="3" t="inlineStr"/>
       <c r="W62" s="3" t="inlineStr">
         <is>
-          <t>N (8)</t>
+          <t>NA (8)</t>
         </is>
       </c>
       <c r="X62" s="3" t="inlineStr"/>
@@ -8099,16 +7572,8 @@
           <t>DQ061851, DQ061852, DQ061853, DQ061854, DQ061855, DQ061856, DQ061857, DQ061858</t>
         </is>
       </c>
-      <c r="AD62" s="3" t="inlineStr">
-        <is>
-          <t>357 (8)</t>
-        </is>
-      </c>
-      <c r="AE62" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (7), 95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD62" s="3" t="inlineStr"/>
+      <c r="AE62" s="3" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
@@ -8169,7 +7634,7 @@
       <c r="R63" s="3" t="inlineStr"/>
       <c r="S63" s="3" t="inlineStr">
         <is>
-          <t>2008 (6), 2004 (2)</t>
+          <t>2008.0 (6), 2004.0 (2)</t>
         </is>
       </c>
       <c r="T63" s="3" t="inlineStr"/>
@@ -8181,7 +7646,7 @@
       <c r="V63" s="3" t="inlineStr"/>
       <c r="W63" s="3" t="inlineStr">
         <is>
-          <t>N (8)</t>
+          <t>NA (8)</t>
         </is>
       </c>
       <c r="X63" s="3" t="inlineStr"/>
@@ -8194,16 +7659,8 @@
           <t>FJ648075, FJ648076, FJ648077, FJ648078, FJ648079, FJ648080, FJ648081, FJ648082</t>
         </is>
       </c>
-      <c r="AD63" s="3" t="inlineStr">
-        <is>
-          <t>357 (8)</t>
-        </is>
-      </c>
-      <c r="AE63" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (8)</t>
-        </is>
-      </c>
+      <c r="AD63" s="3" t="inlineStr"/>
+      <c r="AE63" s="3" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
@@ -8264,7 +7721,7 @@
       <c r="R64" s="3" t="inlineStr"/>
       <c r="S64" s="3" t="inlineStr">
         <is>
-          <t>2018 (2)</t>
+          <t>2018.0 (2)</t>
         </is>
       </c>
       <c r="T64" s="3" t="inlineStr"/>
@@ -8276,7 +7733,7 @@
       <c r="V64" s="3" t="inlineStr"/>
       <c r="W64" s="3" t="inlineStr">
         <is>
-          <t>N (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="X64" s="3" t="inlineStr"/>
@@ -8289,16 +7746,8 @@
           <t>MH423323, MH423324</t>
         </is>
       </c>
-      <c r="AD64" s="3" t="inlineStr">
-        <is>
-          <t>1491 (2)</t>
-        </is>
-      </c>
-      <c r="AE64" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD64" s="3" t="inlineStr"/>
+      <c r="AE64" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
